--- a/wünsche.xlsx
+++ b/wünsche.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkom\Desktop\ \"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Dateien\Programmieren\w0fl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3F7B37-3000-4A99-A124-891586B37A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8C5CFA-4516-4581-96C3-678B1013CAA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F29547C-95CE-47C1-A685-E4A01FDA0794}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -105,6 +105,36 @@
   </si>
   <si>
     <t>https://de.hyperx.com/products/hyperx-wrist-rest-tenkeyless?variant=40706501214344</t>
+  </si>
+  <si>
+    <t>Logitech G502 X Plus</t>
+  </si>
+  <si>
+    <t>https://www.coolblue.de/produkt/913133/logitech-g502-x-plus-lightspeed-kabellose-gaming-maus-schwarz.html</t>
+  </si>
+  <si>
+    <t>Mauspad Nyfter</t>
+  </si>
+  <si>
+    <t>https://nyfter.com/collections/mousepads/XXL</t>
+  </si>
+  <si>
+    <t>https://www.garmin.com/de-DE/p/1057989/pn/010-02862-10</t>
+  </si>
+  <si>
+    <t>Garmin vívoactive® 5</t>
+  </si>
+  <si>
+    <t>Longboardteile</t>
+  </si>
+  <si>
+    <t>Kingpin Mutter, Hardware 3x, Railguards</t>
+  </si>
+  <si>
+    <t>Flip-Flops</t>
+  </si>
+  <si>
+    <t>Klamotten</t>
   </si>
 </sst>
 </file>
@@ -407,7 +437,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -425,6 +455,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -765,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B04137-11F5-4973-9DE2-28FD7788D8D9}">
-  <dimension ref="B3:F34"/>
+  <dimension ref="B3:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,8 +808,8 @@
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
     <col min="2" max="3" width="11.42578125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="73.140625" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="180" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="174.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -954,7 +986,9 @@
       <c r="F25" s="5"/>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D26" s="4"/>
+      <c r="D26" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="E26" s="8"/>
       <c r="F26" s="5"/>
     </row>
@@ -964,29 +998,55 @@
       <c r="F27" s="5"/>
     </row>
     <row r="28" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D28" s="14"/>
-      <c r="E28" s="15"/>
+      <c r="D28" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="15">
+        <v>30</v>
+      </c>
       <c r="F28" s="16"/>
     </row>
     <row r="29" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D29" s="4"/>
-      <c r="E29" s="8"/>
+      <c r="D29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="8">
+        <v>100</v>
+      </c>
       <c r="F29" s="5"/>
     </row>
     <row r="30" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D30" s="4"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="5"/>
+      <c r="D30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="8">
+        <v>220</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="31" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D31" s="4"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="5"/>
+      <c r="D31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="8">
+        <v>40</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="32" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D32" s="4"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="5"/>
+      <c r="D32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="8">
+        <v>105</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D33" s="11" t="s">
@@ -1003,6 +1063,14 @@
       <c r="D34" s="6"/>
       <c r="E34" s="9"/>
       <c r="F34" s="7"/>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E36" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/wünsche.xlsx
+++ b/wünsche.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Dateien\Programmieren\w0fl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8C5CFA-4516-4581-96C3-678B1013CAA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7357E839-5701-4CD9-A33F-5E8B87840CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F29547C-95CE-47C1-A685-E4A01FDA0794}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Name</t>
   </si>
@@ -119,22 +119,16 @@
     <t>https://nyfter.com/collections/mousepads/XXL</t>
   </si>
   <si>
-    <t>https://www.garmin.com/de-DE/p/1057989/pn/010-02862-10</t>
-  </si>
-  <si>
-    <t>Garmin vívoactive® 5</t>
-  </si>
-  <si>
     <t>Longboardteile</t>
   </si>
   <si>
     <t>Kingpin Mutter, Hardware 3x, Railguards</t>
   </si>
   <si>
-    <t>Flip-Flops</t>
-  </si>
-  <si>
     <t>Klamotten</t>
+  </si>
+  <si>
+    <t>Vans</t>
   </si>
 </sst>
 </file>
@@ -799,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B04137-11F5-4973-9DE2-28FD7788D8D9}">
   <dimension ref="B3:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,13 +975,17 @@
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D25" s="4"/>
-      <c r="E25" s="8"/>
+      <c r="D25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="8">
+        <v>85</v>
+      </c>
       <c r="F25" s="5"/>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D26" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="5"/>
@@ -998,17 +996,13 @@
       <c r="F27" s="5"/>
     </row>
     <row r="28" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D28" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" s="15">
-        <v>30</v>
-      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15"/>
       <c r="F28" s="16"/>
     </row>
     <row r="29" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D29" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E29" s="8">
         <v>100</v>
@@ -1016,15 +1010,9 @@
       <c r="F29" s="5"/>
     </row>
     <row r="30" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D30" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" s="8">
-        <v>220</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="5"/>
     </row>
     <row r="31" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D31" s="4" t="s">
@@ -1066,10 +1054,10 @@
     </row>
     <row r="36" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E36" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/wünsche.xlsx
+++ b/wünsche.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Dateien\Programmieren\w0fl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7357E839-5701-4CD9-A33F-5E8B87840CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE56D8A9-0849-4441-8564-F7A94B5A7DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F29547C-95CE-47C1-A685-E4A01FDA0794}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{9F29547C-95CE-47C1-A685-E4A01FDA0794}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -105,18 +105,6 @@
   </si>
   <si>
     <t>https://de.hyperx.com/products/hyperx-wrist-rest-tenkeyless?variant=40706501214344</t>
-  </si>
-  <si>
-    <t>Logitech G502 X Plus</t>
-  </si>
-  <si>
-    <t>https://www.coolblue.de/produkt/913133/logitech-g502-x-plus-lightspeed-kabellose-gaming-maus-schwarz.html</t>
-  </si>
-  <si>
-    <t>Mauspad Nyfter</t>
-  </si>
-  <si>
-    <t>https://nyfter.com/collections/mousepads/XXL</t>
   </si>
   <si>
     <t>Longboardteile</t>
@@ -793,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B04137-11F5-4973-9DE2-28FD7788D8D9}">
   <dimension ref="B3:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,7 +964,7 @@
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D25" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E25" s="8">
         <v>85</v>
@@ -985,7 +973,7 @@
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D26" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="5"/>
@@ -1002,7 +990,7 @@
     </row>
     <row r="29" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D29" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E29" s="8">
         <v>100</v>
@@ -1015,26 +1003,14 @@
       <c r="F30" s="5"/>
     </row>
     <row r="31" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D31" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" s="8">
-        <v>40</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="5"/>
     </row>
     <row r="32" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D32" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" s="8">
-        <v>105</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="5"/>
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D33" s="11" t="s">
@@ -1054,10 +1030,10 @@
     </row>
     <row r="36" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E36" s="18" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/wünsche.xlsx
+++ b/wünsche.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Dateien\Programmieren\w0fl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE56D8A9-0849-4441-8564-F7A94B5A7DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D563E6-03B4-4E91-AB3F-AFEE8B41EC68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{9F29547C-95CE-47C1-A685-E4A01FDA0794}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{9F29547C-95CE-47C1-A685-E4A01FDA0794}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Wishlist" sheetId="1" r:id="rId1"/>
+    <sheet name="Magic" sheetId="3" r:id="rId2"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>Name</t>
   </si>
@@ -117,6 +119,45 @@
   </si>
   <si>
     <t>Vans</t>
+  </si>
+  <si>
+    <t>Traveling Chocobo</t>
+  </si>
+  <si>
+    <t>https://www.cardmarket.com/en/Magic/Products/Singles/Magic-The-Gathering-FINAL-FANTASY/Traveling-Chocobo?utm_campaign=card_prices&amp;utm_medium=text&amp;utm_source=scryfall</t>
+  </si>
+  <si>
+    <t>Mirror Box</t>
+  </si>
+  <si>
+    <t>https://www.cardmarket.com/en/Magic/Products/Singles/Magic-The-Gathering-Foundations-Extras/Omniscience-V1?utm_campaign=card_prices&amp;utm_medium=text&amp;utm_source=scryfall</t>
+  </si>
+  <si>
+    <t>Omniscience</t>
+  </si>
+  <si>
+    <t>Bristly Bill, Spine Sower</t>
+  </si>
+  <si>
+    <t>https://www.cardmarket.com/en/Magic/Products/Singles/Outlaws-of-Thunder-Junction/Bristly-Bill-Spine-Sower?utm_campaign=card_prices&amp;utm_medium=text&amp;utm_source=scryfall</t>
+  </si>
+  <si>
+    <t>Mossborn Hydra</t>
+  </si>
+  <si>
+    <t>https://www.cardmarket.com/en/Magic/Products/Singles/Magic-The-Gathering-Foundations-Extras/Mossborn-Hydra-V1?utm_campaign=card_prices&amp;utm_medium=text&amp;utm_source=scryfall</t>
+  </si>
+  <si>
+    <t>Staff of Domination</t>
+  </si>
+  <si>
+    <t>Arbor Adherent</t>
+  </si>
+  <si>
+    <t>Exploration</t>
+  </si>
+  <si>
+    <t>The Eternity Elevator</t>
   </si>
 </sst>
 </file>
@@ -779,9 +820,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B04137-11F5-4973-9DE2-28FD7788D8D9}">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
   <dimension ref="B3:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -1045,4 +1089,257 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D67D39E-9558-4DDB-A7D5-B4179F56DE08}">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="B3:F34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="3" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="73.140625" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="174.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="8">
+        <v>22</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="8">
+        <v>5</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="8">
+        <v>25</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="8">
+        <v>10</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="8">
+        <v>30</v>
+      </c>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D11" s="4"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D12" s="4"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="8">
+        <v>2</v>
+      </c>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="8">
+        <v>1</v>
+      </c>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D15" s="4"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D16" s="4"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D17" s="4"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="4"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D19" s="4"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D20" s="4"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D21" s="4"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D22" s="4"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D23" s="4"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D24" s="4"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D25" s="4"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D26" s="4"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D27" s="4"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D28" s="14"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D29" s="4"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D30" s="4"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D31" s="4"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D32" s="4"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D33" s="11"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="13"/>
+    </row>
+    <row r="34" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="F34" s="7"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F5" r:id="rId1" xr:uid="{E01607AB-6E36-4BB7-9AD1-1A787FAD49DF}"/>
+    <hyperlink ref="F8" r:id="rId2" xr:uid="{8AF2533F-9911-43F0-BF64-B80F44F82DD0}"/>
+    <hyperlink ref="F6" r:id="rId3" xr:uid="{D22B1759-233C-49AF-993F-6F524DE7E113}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DB38CF-BD4C-4F74-A63C-95985817979B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="48.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="90.85546875" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/wünsche.xlsx
+++ b/wünsche.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Dateien\Programmieren\w0fl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D563E6-03B4-4E91-AB3F-AFEE8B41EC68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D05378-B92C-4D8F-88D9-14EF36244EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{9F29547C-95CE-47C1-A685-E4A01FDA0794}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F29547C-95CE-47C1-A685-E4A01FDA0794}"/>
   </bookViews>
   <sheets>
     <sheet name="Wishlist" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -73,12 +73,6 @@
     <t>https://www.mindfactory.de/product_info.php/32GB-G-Skill-Trident-Z-RGB-DDR4-4400-DIMM-CL19-Dual-Kit_1409855.html</t>
   </si>
   <si>
-    <t>32GB G.Skill Trident Z RGB DDR4-4400 DIMM CL19 Dual Kit (2x für 64GB)</t>
-  </si>
-  <si>
-    <t>AsRock Radeon™ RX 7900 XT Taichi 20GB OC</t>
-  </si>
-  <si>
     <t>https://www.slotblog.de/produkt/carrera-randstreifenpaket-fuer-die-grundpackung-300015-dtm-speed-memories/</t>
   </si>
   <si>
@@ -115,12 +109,6 @@
     <t>Kingpin Mutter, Hardware 3x, Railguards</t>
   </si>
   <si>
-    <t>Klamotten</t>
-  </si>
-  <si>
-    <t>Vans</t>
-  </si>
-  <si>
     <t>Traveling Chocobo</t>
   </si>
   <si>
@@ -158,6 +146,36 @@
   </si>
   <si>
     <t>The Eternity Elevator</t>
+  </si>
+  <si>
+    <t>https://www.caseking.de/asrock-radeon-rx-9070-xt-taichi-oc-graphics-card-16384-mb-gddr6/GCAR-029.html</t>
+  </si>
+  <si>
+    <t>ASrock Radeon RX 9070 XT Taichi 16GB</t>
+  </si>
+  <si>
+    <t>1000 Watt be quiet! Straight Power 12 Modular 80+ Platinum</t>
+  </si>
+  <si>
+    <t>https://www.mindfactory.de/product_info.php/1000-Watt-be-quiet--Straight-Power-12-Modular-80--Platinum_1496098.html</t>
+  </si>
+  <si>
+    <t>32GB G.Skill Trident Z RGB DDR4-3600 DIMM CL18</t>
+  </si>
+  <si>
+    <t>https://www.mindfactory.de/product_info.php/32GB-G-Skill-Trident-Z-RGB-DDR4-3600-DIMM-CL18-Dual-Kit_1334014.html</t>
+  </si>
+  <si>
+    <t>https://www.caseking.de/be-quiet-mc1-m.2-ssd-cooler-black/ZUWE-441.html</t>
+  </si>
+  <si>
+    <t>be quiet! MC1 M.2 SSD Kühler - schwarz</t>
+  </si>
+  <si>
+    <t>Alpenföhn 120mm Wing Boost 3 ARGB High Speed</t>
+  </si>
+  <si>
+    <t>https://www.caseking.de/alpenfoehn-120mm-wing-boost-3-argb-high-speed-pwm-fans-triple-black/LUAL-040.html</t>
   </si>
 </sst>
 </file>
@@ -190,7 +208,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,6 +251,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -460,7 +484,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -480,6 +504,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -825,8 +852,8 @@
   </sheetPr>
   <dimension ref="B3:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,9 +920,7 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D9" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="D9" s="4"/>
       <c r="E9" s="8">
         <v>220</v>
       </c>
@@ -904,62 +929,58 @@
       </c>
     </row>
     <row r="10" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D10" s="4"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="10"/>
+      <c r="D10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="8">
+        <v>120</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D11" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E11" s="8">
-        <v>800</v>
-      </c>
-      <c r="F11" s="10"/>
+        <v>125</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="12" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D12" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12" s="8">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D13" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E13" s="8">
-        <v>125</v>
+        <v>168</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="8">
-        <v>150</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>18</v>
-      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="21"/>
     </row>
     <row r="15" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="8">
-        <v>168</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>19</v>
-      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="21"/>
     </row>
     <row r="16" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D16" s="4"/>
@@ -967,34 +988,68 @@
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D17" s="4"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="5"/>
+      <c r="D17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="8">
+        <v>820</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D18" s="4"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="5"/>
+      <c r="D18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="8">
+        <v>180</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D19" s="4"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="5"/>
+      <c r="D19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="8">
+        <v>100</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D20" s="4"/>
-      <c r="E20" s="8"/>
+      <c r="D20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="8">
+        <v>100</v>
+      </c>
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D21" s="4"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="5"/>
+      <c r="D21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="8">
+        <v>10</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D22" s="4"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="5"/>
+      <c r="D22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="8">
+        <v>50</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D23" s="4"/>
@@ -1004,21 +1059,15 @@
     <row r="24" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D24" s="4"/>
       <c r="E24" s="8"/>
-      <c r="F24" s="5"/>
+      <c r="F24" s="10"/>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D25" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="8">
-        <v>85</v>
-      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="8"/>
       <c r="F25" s="5"/>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D26" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="D26" s="4"/>
       <c r="E26" s="8"/>
       <c r="F26" s="5"/>
     </row>
@@ -1033,12 +1082,8 @@
       <c r="F28" s="16"/>
     </row>
     <row r="29" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D29" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" s="8">
-        <v>100</v>
-      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="8"/>
       <c r="F29" s="5"/>
     </row>
     <row r="30" spans="4:6" x14ac:dyDescent="0.25">
@@ -1058,13 +1103,13 @@
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D33" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E33" s="12">
         <v>20</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1074,10 +1119,10 @@
     </row>
     <row r="36" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E36" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1098,8 +1143,8 @@
   </sheetPr>
   <dimension ref="B3:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1125,51 +1170,51 @@
     </row>
     <row r="5" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D5" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5" s="8">
         <v>22</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D6" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E6" s="8">
         <v>5</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D7" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E7" s="8">
         <v>25</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D8" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E8" s="8">
         <v>10</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D9" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E9" s="8">
         <v>30</v>
@@ -1178,7 +1223,7 @@
     </row>
     <row r="10" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D10" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="10"/>
@@ -1195,7 +1240,7 @@
     </row>
     <row r="13" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D13" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E13" s="8">
         <v>2</v>
@@ -1204,7 +1249,7 @@
     </row>
     <row r="14" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D14" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E14" s="8">
         <v>1</v>
@@ -1308,7 +1353,7 @@
     </row>
     <row r="34" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D34" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E34" s="9">
         <v>0.4</v>

--- a/wünsche.xlsx
+++ b/wünsche.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Dateien\Programmieren\w0fl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D05378-B92C-4D8F-88D9-14EF36244EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF18F05-4957-481B-82F4-B0B03DE3A70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F29547C-95CE-47C1-A685-E4A01FDA0794}"/>
   </bookViews>
   <sheets>
     <sheet name="Wishlist" sheetId="1" r:id="rId1"/>
     <sheet name="Magic" sheetId="3" r:id="rId2"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
   <si>
     <t>Name</t>
   </si>
@@ -70,9 +69,6 @@
     <t>Digital-Startset Mobile Station 2 (aus Kempten)</t>
   </si>
   <si>
-    <t>https://www.mindfactory.de/product_info.php/32GB-G-Skill-Trident-Z-RGB-DDR4-4400-DIMM-CL19-Dual-Kit_1409855.html</t>
-  </si>
-  <si>
     <t>https://www.slotblog.de/produkt/carrera-randstreifenpaket-fuer-die-grundpackung-300015-dtm-speed-memories/</t>
   </si>
   <si>
@@ -176,6 +172,66 @@
   </si>
   <si>
     <t>https://www.caseking.de/alpenfoehn-120mm-wing-boost-3-argb-high-speed-pwm-fans-triple-black/LUAL-040.html</t>
+  </si>
+  <si>
+    <t>be quiet! CP-6610 PCIe Single-Kabel</t>
+  </si>
+  <si>
+    <t>https://www.caseking.de/be-quiet-cp-6610-pcie-single-cable-for-modular-power-supplies-black/NEDE-043.html</t>
+  </si>
+  <si>
+    <t>https://www.caseking.de/inline-spiral-binding-cable-sleeve-black-10mm-x-10m/ZUSP-009.html</t>
+  </si>
+  <si>
+    <t>InLine Spiralband Kabelschlauch, schwarz - 10mm x 10m</t>
+  </si>
+  <si>
+    <t>Zusammen:</t>
+  </si>
+  <si>
+    <t>CableMod Universal Pro ModMesh 16-Pin zu 16-Pin-Kabel, 90° Anschluss, Sleeved, StealthSense - schwarz, 60 cm, Var. B</t>
+  </si>
+  <si>
+    <t>https://www.caseking.de/cablemod-universal-pro-modmesh-16-pin-to-16-pin-cable-90-connector-sleeved-stealthsense-black-60-cm-var.-b/ZUAD-1726.html</t>
+  </si>
+  <si>
+    <t>Bruna, the Fading Light</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brisela, Voice of Nightmares </t>
+  </si>
+  <si>
+    <t>Gisela, the Broken Blade</t>
+  </si>
+  <si>
+    <t>Linvala, Keeper of Silence</t>
+  </si>
+  <si>
+    <t>Linvala, the Preserver</t>
+  </si>
+  <si>
+    <t>Lyra Dawnbringer</t>
+  </si>
+  <si>
+    <t>Radiant, Archangel</t>
+  </si>
+  <si>
+    <t>Reya Dawnbringer</t>
+  </si>
+  <si>
+    <t>Sephara, Sky's Blade</t>
+  </si>
+  <si>
+    <t>Avacyn, Angel of Hope</t>
+  </si>
+  <si>
+    <t>Akroma, Vision of Ixidor</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>https://www.slotcarscheune.de/Bahn-Zubehoer/Carrera/Carrera-233/kurven-und-randstreifen/Carrera-Innenrandstreifen-Komplett-fuer-Kurve-1-60-20020551-4281.html</t>
   </si>
 </sst>
 </file>
@@ -484,7 +540,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -507,6 +563,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -853,7 +910,7 @@
   <dimension ref="B3:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,61 +978,59 @@
     </row>
     <row r="9" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D9" s="4"/>
-      <c r="E9" s="8">
-        <v>220</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D10" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="8">
         <v>120</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D11" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="8">
         <v>125</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D12" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" s="8">
         <v>150</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D13" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" s="8">
         <v>168</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D14" s="19"/>
       <c r="E14" s="20"/>
-      <c r="F14" s="21"/>
+      <c r="F14" s="22" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="15" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D15" s="19"/>
@@ -989,40 +1044,40 @@
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D17" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17" s="8">
         <v>820</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>36</v>
+      <c r="F17" s="10" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D18" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E18" s="8">
         <v>180</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>39</v>
+      <c r="F18" s="10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D19" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E19" s="8">
         <v>100</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>41</v>
+      <c r="F19" s="10" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D20" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20" s="8">
         <v>100</v>
@@ -1031,45 +1086,63 @@
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D21" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E21" s="8">
         <v>10</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>42</v>
+      <c r="F21" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D22" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E22" s="8">
         <v>50</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="8">
+        <v>30</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D24" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D23" s="4"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D24" s="4"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="10"/>
+      <c r="E24" s="8">
+        <v>10</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D25" s="4"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="5"/>
+      <c r="D25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="8">
+        <v>5</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D26" s="4"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="5"/>
+      <c r="F26" s="10"/>
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D27" s="4"/>
@@ -1092,8 +1165,13 @@
       <c r="F30" s="5"/>
     </row>
     <row r="31" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D31" s="4"/>
-      <c r="E31" s="8"/>
+      <c r="D31" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="8">
+        <f>SUM(E17:E29)</f>
+        <v>1305</v>
+      </c>
       <c r="F31" s="5"/>
     </row>
     <row r="32" spans="4:6" x14ac:dyDescent="0.25">
@@ -1103,13 +1181,13 @@
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D33" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E33" s="12">
         <v>20</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1119,18 +1197,28 @@
     </row>
     <row r="36" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E36" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="17" t="s">
         <v>21</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F9" r:id="rId1" xr:uid="{237108B9-D4B0-4F27-A5C7-CB2741929449}"/>
-    <hyperlink ref="F7" r:id="rId2" xr:uid="{B3C301B0-0643-4919-B0E6-822E79ACEAD8}"/>
-    <hyperlink ref="F6" r:id="rId3" xr:uid="{90C88114-7627-4494-8C30-DA96E3807496}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{0A379125-3A72-4E57-9F78-717BE7E120E3}"/>
+    <hyperlink ref="F7" r:id="rId1" xr:uid="{B3C301B0-0643-4919-B0E6-822E79ACEAD8}"/>
+    <hyperlink ref="F6" r:id="rId2" xr:uid="{90C88114-7627-4494-8C30-DA96E3807496}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{0A379125-3A72-4E57-9F78-717BE7E120E3}"/>
+    <hyperlink ref="F24" r:id="rId4" xr:uid="{61A2E3D5-953A-49EA-9439-A2FCF9F5B288}"/>
+    <hyperlink ref="F25" r:id="rId5" xr:uid="{2720F716-1C44-44C4-9D74-BE38E3ED9A13}"/>
+    <hyperlink ref="F23" r:id="rId6" xr:uid="{5B1ABBA9-954D-454E-87DA-26B85ACBEAC7}"/>
+    <hyperlink ref="F22" r:id="rId7" xr:uid="{4F08F0CC-03BA-459C-9957-F4016A6C6052}"/>
+    <hyperlink ref="F21" r:id="rId8" xr:uid="{4C97DBE6-3868-4F94-8198-64989AE32EFA}"/>
+    <hyperlink ref="F19" r:id="rId9" xr:uid="{AC12DB56-ABE6-43CA-AFFA-DF1FC98AF69D}"/>
+    <hyperlink ref="F18" r:id="rId10" xr:uid="{C853E9D4-3631-42F0-9502-9F2A07DA1178}"/>
+    <hyperlink ref="F17" r:id="rId11" xr:uid="{1CB4B0AF-E0ED-4302-9A0C-D3ECF97A73B0}"/>
+    <hyperlink ref="F10" r:id="rId12" xr:uid="{1966C120-2C3C-4C14-AD10-51403DFA2ECF}"/>
+    <hyperlink ref="F11" r:id="rId13" xr:uid="{7182295F-DA77-4E5A-9F38-5B191200B45C}"/>
+    <hyperlink ref="F14" r:id="rId14" xr:uid="{8F3D2448-CEC0-4778-B2E5-519E73BE2066}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1144,7 +1232,7 @@
   <dimension ref="B3:F34"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1170,51 +1258,51 @@
     </row>
     <row r="5" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="8">
         <v>22</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D6" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="8">
         <v>5</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D7" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="8">
         <v>25</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D8" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="8">
         <v>10</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D9" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="8">
         <v>30</v>
@@ -1223,7 +1311,7 @@
     </row>
     <row r="10" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D10" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="10"/>
@@ -1240,7 +1328,7 @@
     </row>
     <row r="13" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D13" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" s="8">
         <v>2</v>
@@ -1249,7 +1337,7 @@
     </row>
     <row r="14" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D14" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" s="8">
         <v>1</v>
@@ -1272,59 +1360,103 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D18" s="4"/>
-      <c r="E18" s="8"/>
+      <c r="D18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="8">
+        <v>2.5</v>
+      </c>
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D19" s="4"/>
-      <c r="E19" s="8"/>
+      <c r="D19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="8">
+        <v>10</v>
+      </c>
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="E20" s="8"/>
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D21" s="4"/>
-      <c r="E21" s="8"/>
+      <c r="D21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="8">
+        <v>20</v>
+      </c>
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D22" s="4"/>
-      <c r="E22" s="8"/>
+      <c r="D22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0.3</v>
+      </c>
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D23" s="4"/>
-      <c r="E23" s="8"/>
+      <c r="D23" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="8">
+        <v>4</v>
+      </c>
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D24" s="4"/>
-      <c r="E24" s="8"/>
+      <c r="D24" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="8">
+        <v>5</v>
+      </c>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D25" s="4"/>
-      <c r="E25" s="8"/>
+      <c r="D25" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="8">
+        <v>3</v>
+      </c>
       <c r="F25" s="5"/>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D26" s="4"/>
-      <c r="E26" s="8"/>
+      <c r="D26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="8">
+        <v>3</v>
+      </c>
       <c r="F26" s="5"/>
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D27" s="4"/>
-      <c r="E27" s="8"/>
+      <c r="D27" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="8">
+        <v>25</v>
+      </c>
       <c r="F27" s="5"/>
     </row>
     <row r="28" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D28" s="14"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="16"/>
+      <c r="D28" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="15">
+        <v>7</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="29" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D29" s="4"/>
@@ -1353,7 +1485,7 @@
     </row>
     <row r="34" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D34" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E34" s="9">
         <v>0.4</v>
@@ -1368,23 +1500,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DB38CF-BD4C-4F74-A63C-95985817979B}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="48.140625" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="4" max="4" width="90.85546875" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/wünsche.xlsx
+++ b/wünsche.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Dateien\Programmieren\w0fl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF18F05-4957-481B-82F4-B0B03DE3A70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63956615-7C32-4147-B6A9-03077059E9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F29547C-95CE-47C1-A685-E4A01FDA0794}"/>
+    <workbookView xWindow="-16200" yWindow="6840" windowWidth="16200" windowHeight="14100" activeTab="2" xr2:uid="{9F29547C-95CE-47C1-A685-E4A01FDA0794}"/>
   </bookViews>
   <sheets>
     <sheet name="Wishlist" sheetId="1" r:id="rId1"/>
     <sheet name="Magic" sheetId="3" r:id="rId2"/>
+    <sheet name="Carrera" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="114">
   <si>
     <t>Name</t>
   </si>
@@ -232,6 +233,153 @@
   </si>
   <si>
     <t>https://www.slotcarscheune.de/Bahn-Zubehoer/Carrera/Carrera-233/kurven-und-randstreifen/Carrera-Innenrandstreifen-Komplett-fuer-Kurve-1-60-20020551-4281.html</t>
+  </si>
+  <si>
+    <t>Autos</t>
+  </si>
+  <si>
+    <t>Vorderreifen</t>
+  </si>
+  <si>
+    <t>Hinterreifen</t>
+  </si>
+  <si>
+    <t>Audi R8 GT LMS Phoenix-Racing, ADAC GT Masters 2009, No.14</t>
+  </si>
+  <si>
+    <t>BMW M4 DTM BMW Team RMG – Bruno Spengler</t>
+  </si>
+  <si>
+    <t>Chevrolet Corvette C8R Pace Car</t>
+  </si>
+  <si>
+    <t>De Tomaso Pantera Gr. 5</t>
+  </si>
+  <si>
+    <t>Ferrari FXX K Evoluzione</t>
+  </si>
+  <si>
+    <t>KTM X-Bow GT2 True Racing</t>
+  </si>
+  <si>
+    <t>McLaren M20 ’72 McLaren Cars No.5, ’72</t>
+  </si>
+  <si>
+    <t>Mercedes-AMG GT3 „AKKA ASP, No.87“</t>
+  </si>
+  <si>
+    <t>Mercedes-AMG GT3 Carrera – 12h Paul Ricard 2021</t>
+  </si>
+  <si>
+    <t>Porsche 911 GT3 RSR Lechner Racing „Carrera Race Taxi“</t>
+  </si>
+  <si>
+    <t>Porsche 911 RSR „Porsche GT Team, #911“</t>
+  </si>
+  <si>
+    <t>Porsche 917/30 Sunoco Porsche Audi No.6, ’73</t>
+  </si>
+  <si>
+    <t>Mercedes-SLS AMG Polizei</t>
+  </si>
+  <si>
+    <t>Porsche 911 GT3 R "Absolute Racing, No.25" Macao GP 2024</t>
+  </si>
+  <si>
+    <t>Porsche 911 RSR Gulf Racing Mike Wainwright Nr.86 Silverstone 2018</t>
+  </si>
+  <si>
+    <t>Hat schon?</t>
+  </si>
+  <si>
+    <t>51b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51a </t>
+  </si>
+  <si>
+    <t>51b, 33b</t>
+  </si>
+  <si>
+    <t>49d, 33bv</t>
+  </si>
+  <si>
+    <t>33b</t>
+  </si>
+  <si>
+    <t>33bv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44d </t>
+  </si>
+  <si>
+    <t>51a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33j </t>
+  </si>
+  <si>
+    <t>Extra</t>
+  </si>
+  <si>
+    <t>33n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33hv </t>
+  </si>
+  <si>
+    <t xml:space="preserve">33L </t>
+  </si>
+  <si>
+    <t xml:space="preserve">49d </t>
+  </si>
+  <si>
+    <t>33b, 33bd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37s </t>
+  </si>
+  <si>
+    <t>33p</t>
+  </si>
+  <si>
+    <t>https://www.gokarli.de/Carrera-Digital-132-Evolution-Reifen-Porsche-GT3-RSR-89552</t>
+  </si>
+  <si>
+    <t>At.nr,</t>
+  </si>
+  <si>
+    <t>https://www.gokarli.de/Ortmann-Reifen-33P</t>
+  </si>
+  <si>
+    <t>https://www.gokarli.de/Carrera-Digital-132-Evolution-Reifen-89800-fuer-DTM-ab-2012-Corvette-Aston-Martin-BMWZ4-und-mehr</t>
+  </si>
+  <si>
+    <t>https://www.gokarli.de/Carrera-Digital-132-Evolution-Reifen-Tomaso-Pantera-27263-27264-27671-27672-27720-27721-30990-30991-31044-31045</t>
+  </si>
+  <si>
+    <t>https://www.gokarli.de/Ortmann-Reifen-33J</t>
+  </si>
+  <si>
+    <t>https://www.gokarli.de/Carrera-Digital-132-Evolution-Reifen-Lamborghini-Huracan-GT3-KTM-X-BOW-GT2-GTX-89919</t>
+  </si>
+  <si>
+    <t>https://www.gokarli.de/Ortmann-Reifen-49D, https://www.gokarli.de/Ortmann-Reifen-33L</t>
+  </si>
+  <si>
+    <t>https://www.gokarli.de/Carrera-Digital-132-Evolution-Reifen-89705-27403-27381-27382-27403-27427-30551-30552-30611-30612-30640-31034</t>
+  </si>
+  <si>
+    <t>https://www.gokarli.de/Carrera-Digital-132-Evolution-Reifen-Mercedes-SLS-AMG-89715</t>
+  </si>
+  <si>
+    <t>https://www.gokarli.de/DSM-RC-Flexibler-Slotcar-Spoiler-kompatibel-zu-Carrera-Evolution-Digital-132-Porsche-911-RSR</t>
+  </si>
+  <si>
+    <t>https://www.gokarli.de/DSM-RC-Flexibler-Slotcar-Spoiler-kompatibel-zu-Carrera-Evolution-Digital-132-BMW-M4-DTM</t>
+  </si>
+  <si>
+    <t>https://www.gokarli.de/DSM-RC-Flexibler-Slotcar-Spoiler-kompatibel-zu-Carrera-Evolution-Digital-132-KTM-X-BOW-GTX</t>
   </si>
 </sst>
 </file>
@@ -540,7 +688,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -564,6 +712,21 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -585,6 +748,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/featurePropertyBag/featurePropertyBag.xml><?xml version="1.0" encoding="utf-8"?>
+<FeaturePropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag">
+  <bag type="Checkbox"/>
+  <bag type="XFControls">
+    <bagId k="CellControl">0</bagId>
+  </bag>
+  <bag type="XFComplement">
+    <bagId k="XFControls">1</bagId>
+  </bag>
+  <bag type="XFComplements" extRef="XFComplementsMapperExtRef">
+    <a k="MappedFeaturePropertyBags">
+      <bagId>2</bagId>
+    </a>
+  </bag>
+</FeaturePropertyBags>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -909,7 +1089,7 @@
   </sheetPr>
   <dimension ref="B3:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -1500,4 +1680,331 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A0406A-C75F-4329-8AFF-555E9659B696}">
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="74.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" customWidth="1"/>
+    <col min="3" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="129.42578125" customWidth="1"/>
+    <col min="7" max="7" width="122.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2">
+        <v>30570</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3">
+        <v>30986</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4">
+        <v>31015</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5">
+        <v>31044</v>
+      </c>
+      <c r="C5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6">
+        <v>30971</v>
+      </c>
+      <c r="D6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7">
+        <v>31012</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8">
+        <v>30523</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9">
+        <v>30846</v>
+      </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10">
+        <v>31034</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11">
+        <v>30793</v>
+      </c>
+      <c r="C11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12">
+        <v>27566</v>
+      </c>
+      <c r="E12" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13">
+        <v>30915</v>
+      </c>
+      <c r="C13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14">
+        <v>32019</v>
+      </c>
+      <c r="C14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15">
+        <v>30521</v>
+      </c>
+      <c r="D15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F15">
+    <sortCondition ref="A2:A15"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="F9" r:id="rId1" xr:uid="{70ACCCA8-3700-4E55-B763-3D48B275DC2C}"/>
+    <hyperlink ref="G7" r:id="rId2" xr:uid="{854160ED-0DB9-4A04-9DBE-594274A311FC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/wünsche.xlsx
+++ b/wünsche.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Dateien\Programmieren\w0fl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63956615-7C32-4147-B6A9-03077059E9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBD275B-1D78-4BA9-A8E1-BA0392694272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16200" yWindow="6840" windowWidth="16200" windowHeight="14100" activeTab="2" xr2:uid="{9F29547C-95CE-47C1-A685-E4A01FDA0794}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{9F29547C-95CE-47C1-A685-E4A01FDA0794}"/>
   </bookViews>
   <sheets>
     <sheet name="Wishlist" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="115">
   <si>
     <t>Name</t>
   </si>
@@ -380,6 +380,9 @@
   </si>
   <si>
     <t>https://www.gokarli.de/DSM-RC-Flexibler-Slotcar-Spoiler-kompatibel-zu-Carrera-Evolution-Digital-132-KTM-X-BOW-GTX</t>
+  </si>
+  <si>
+    <t>https://www.gokarli.de/DSM-RC-Flexibler-Slotcar-Spoiler-kompatibel-zu-Carrera-Evolution-Digital-132-Corvette-C8R</t>
   </si>
 </sst>
 </file>
@@ -1687,7 +1690,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1753,10 +1756,10 @@
       <c r="E3" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="24" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1776,8 +1779,11 @@
       <c r="E4" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="24" t="s">
         <v>104</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1796,7 +1802,7 @@
       <c r="E5" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="24" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1834,7 +1840,7 @@
       <c r="E7" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="24" t="s">
         <v>107</v>
       </c>
       <c r="G7" s="24" t="s">
@@ -1897,7 +1903,7 @@
       <c r="E10" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="24" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1917,7 +1923,7 @@
       <c r="E11" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="24" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1931,7 +1937,7 @@
       <c r="E12" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="24" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1951,7 +1957,7 @@
       <c r="E13" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="24" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1971,7 +1977,7 @@
       <c r="E14" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="24" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1988,7 +1994,7 @@
       <c r="E15" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="24" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2004,6 +2010,19 @@
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" xr:uid="{70ACCCA8-3700-4E55-B763-3D48B275DC2C}"/>
     <hyperlink ref="G7" r:id="rId2" xr:uid="{854160ED-0DB9-4A04-9DBE-594274A311FC}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{88E82DFC-EB42-4529-B950-47CB73D83A3E}"/>
+    <hyperlink ref="G3" r:id="rId4" xr:uid="{389A271B-8030-4471-B0B2-427E7173FFA1}"/>
+    <hyperlink ref="F3" r:id="rId5" xr:uid="{1B4DD302-ABA1-43BF-981D-A256E03FFC52}"/>
+    <hyperlink ref="F4" r:id="rId6" xr:uid="{5A428356-D46B-4D7A-A0D1-7F9000C5998E}"/>
+    <hyperlink ref="F5" r:id="rId7" xr:uid="{25DE3FDD-8651-4DDD-AEEF-180CF4F1EF12}"/>
+    <hyperlink ref="F7" r:id="rId8" xr:uid="{13CEDDC9-B7E1-4948-B995-893AA14CF8EC}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{A26D0F1E-582F-4448-8BE8-6000AFDD3FC6}"/>
+    <hyperlink ref="F11" r:id="rId10" xr:uid="{83B3CE6A-A54E-43D0-BD73-9EAAF568E4D1}"/>
+    <hyperlink ref="F12" r:id="rId11" xr:uid="{CAC590DE-116D-484D-B41D-C66972DB687E}"/>
+    <hyperlink ref="F13" r:id="rId12" xr:uid="{1BE380A2-D35B-491A-BE54-512827568A37}"/>
+    <hyperlink ref="F14" r:id="rId13" xr:uid="{B2F5C803-3AA3-408D-A331-92B1245798FB}"/>
+    <hyperlink ref="F15" r:id="rId14" xr:uid="{717F05A8-370E-4C7B-8BFF-6CF1D27FA654}"/>
+    <hyperlink ref="F6" r:id="rId15" xr:uid="{D076C418-E852-4D95-950B-90BB92D4134D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
